--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D05FED-C987-48CB-BA25-55AF9525BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED4753-7FE9-48E3-9262-B8827B2A52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="7770" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>##</t>
   </si>
@@ -179,6 +179,22 @@
   </si>
   <si>
     <t>铁骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyStrategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +580,14 @@
       <c r="Q1" t="s">
         <v>20</v>
       </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -617,8 +639,14 @@
       <c r="Q2" t="s">
         <v>22</v>
       </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -670,8 +698,14 @@
       <c r="Q3" t="s">
         <v>23</v>
       </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>20001</v>
       </c>
@@ -720,8 +754,11 @@
       <c r="Q4">
         <v>0.9</v>
       </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>20002</v>
       </c>
@@ -744,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>0.2</v>
@@ -769,6 +806,9 @@
       </c>
       <c r="Q5">
         <v>0.9</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ED4753-7FE9-48E3-9262-B8827B2A52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF74EF4-2220-4BB0-98C0-340EBF25E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="5265" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>##</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>最大能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyActions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,EnemyAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,扑咬,造成130%物理伤害，击退单位一格。,Ult,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,移动,移动一格,Move,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,咬,造成100%物理伤害。回复一点cost,Attack,0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,8 +262,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,298 +550,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>21</v>
-      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="T3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4">
+    <row r="4" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>20001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>55</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>33</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0.9</v>
       </c>
-      <c r="N4">
-        <v>0.1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>20002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>0.9</v>
       </c>
-      <c r="S4">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>20002</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>0.9</v>
-      </c>
-      <c r="N5">
-        <v>0.1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.9</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
+      <c r="T5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF74EF4-2220-4BB0-98C0-340EBF25E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266D605-3689-4DCF-999E-79B42195C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="5265" windowWidth="28800" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3960" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猎狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnemyStrategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +211,14 @@
   </si>
   <si>
     <t>1,咬,造成100%物理伤害。回复一点cost,Attack,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatknight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,13 +611,13 @@
         <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -739,13 +739,13 @@
         <v>23</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -756,7 +756,7 @@
         <v>20001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -805,13 +805,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
@@ -820,7 +820,7 @@
         <v>20002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -869,13 +869,13 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266D605-3689-4DCF-999E-79B42195C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA38BCA-5580-4B5A-840E-55C4EBDD2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3960" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="6480" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>##</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>fatknight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,13 +266,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +628,11 @@
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
+      <c r="W1" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,8 +695,11 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +763,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>20001</v>
@@ -813,8 +826,11 @@
       <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>20002</v>
@@ -876,6 +892,9 @@
       </c>
       <c r="V5" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA38BCA-5580-4B5A-840E-55C4EBDD2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D3D40-7A45-43B0-AA63-5128ED2ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="6480" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>##</t>
   </si>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,扑咬,造成5点物理伤害，击退单位一格。,Ult,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,咬,造成3点物理伤害。回复一点cost,Attack,3,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,16 +274,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,7 +633,7 @@
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -695,7 +700,7 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -821,10 +826,10 @@
         <v>46</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>48</v>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D3D40-7A45-43B0-AA63-5128ED2ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA38BCA-5580-4B5A-840E-55C4EBDD2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="6480" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>##</t>
   </si>
@@ -223,14 +223,6 @@
   </si>
   <si>
     <t>Alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,扑咬,造成5点物理伤害，击退单位一格。,Ult,5,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,咬,造成3点物理伤害。回复一点cost,Attack,3,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,13 +266,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -633,7 +628,7 @@
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -700,7 +695,7 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -826,10 +821,10 @@
         <v>46</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>48</v>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266D605-3689-4DCF-999E-79B42195C4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D3D40-7A45-43B0-AA63-5128ED2ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3960" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="6480" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>##</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>fatknight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,扑咬,造成5点物理伤害，击退单位一格。,Ult,5,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,咬,造成3点物理伤害。回复一点cost,Attack,3,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +633,11 @@
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
+      <c r="W1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,8 +700,11 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +768,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>20001</v>
@@ -808,13 +826,16 @@
         <v>46</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>20002</v>
@@ -876,6 +897,9 @@
       </c>
       <c r="V5" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/EnemyInfo.xlsx
+++ b/My project/Luban/Config/Datas/EnemyInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D3D40-7A45-43B0-AA63-5128ED2ACCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839E41B-8509-4B03-BAF7-04329A122AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="6480" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>##</t>
   </si>
@@ -202,18 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,扑咬,造成130%物理伤害，击退单位一格。,Ult,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,移动,移动一格,Move,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,咬,造成100%物理伤害。回复一点cost,Attack,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dog01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,11 +214,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,扑咬,造成5点物理伤害，击退单位一格。,Ult,5,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,咬,造成3点物理伤害。回复一点cost,Attack,3,0,0</t>
+    <t>BackPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,移动,移动一格,Move,0,0,0,Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,扑咬,造成3点物理伤害，击退单位一格。,Attack,2,0,0,SingleEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,咬,造成2点物理伤害,Attack,3,0,0,SingleEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,挥砍,造成3物理伤害,Attack,4,0,0,SingleEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,胡乱连砍,打击两个单位各4点伤害。,Attack,3,2,0,MultipleEnemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,10 +642,13 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,8 +714,11 @@
       <c r="W2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,14 +781,17 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
+      <c r="X3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>20001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -795,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -823,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>52</v>
@@ -832,16 +849,19 @@
         <v>51</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>20002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -859,10 +879,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -890,16 +910,19 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>49</v>
+      <c r="X5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
